--- a/DATA_goal/Junction_Flooding_29.xlsx
+++ b/DATA_goal/Junction_Flooding_29.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH12"/>
+  <dimension ref="A1:AH11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,38 +444,38 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="6" customWidth="1" min="11" max="11"/>
+    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="6" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="6" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="6" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="6" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1688,110 +1688,6 @@
       </c>
       <c r="AH11" s="4" t="n">
         <v>8.609999999999999</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="3" t="n">
-        <v>37499.07637731481</v>
-      </c>
-      <c r="B12" s="4" t="n">
-        <v>16.04</v>
-      </c>
-      <c r="C12" s="4" t="n">
-        <v>11.96</v>
-      </c>
-      <c r="D12" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="E12" s="4" t="n">
-        <v>34.25</v>
-      </c>
-      <c r="F12" s="4" t="n">
-        <v>28.45</v>
-      </c>
-      <c r="G12" s="4" t="n">
-        <v>12.59</v>
-      </c>
-      <c r="H12" s="4" t="n">
-        <v>46.91</v>
-      </c>
-      <c r="I12" s="4" t="n">
-        <v>19.04</v>
-      </c>
-      <c r="J12" s="4" t="n">
-        <v>8.619999999999999</v>
-      </c>
-      <c r="K12" s="4" t="n">
-        <v>13.01</v>
-      </c>
-      <c r="L12" s="4" t="n">
-        <v>13.81</v>
-      </c>
-      <c r="M12" s="4" t="n">
-        <v>14.48</v>
-      </c>
-      <c r="N12" s="4" t="n">
-        <v>3.98</v>
-      </c>
-      <c r="O12" s="4" t="n">
-        <v>12.33</v>
-      </c>
-      <c r="P12" s="4" t="n">
-        <v>17.86</v>
-      </c>
-      <c r="Q12" s="4" t="n">
-        <v>10.22</v>
-      </c>
-      <c r="R12" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="S12" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="T12" s="4" t="n">
-        <v>181.45</v>
-      </c>
-      <c r="U12" s="4" t="n">
-        <v>34.65</v>
-      </c>
-      <c r="V12" s="4" t="n">
-        <v>11.51</v>
-      </c>
-      <c r="W12" s="4" t="n">
-        <v>23.49</v>
-      </c>
-      <c r="X12" s="4" t="n">
-        <v>12.27</v>
-      </c>
-      <c r="Y12" s="4" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Z12" s="4" t="n">
-        <v>23.11</v>
-      </c>
-      <c r="AA12" s="4" t="n">
-        <v>10.11</v>
-      </c>
-      <c r="AB12" s="4" t="n">
-        <v>8.81</v>
-      </c>
-      <c r="AC12" s="4" t="n">
-        <v>10.39</v>
-      </c>
-      <c r="AD12" s="4" t="n">
-        <v>14.67</v>
-      </c>
-      <c r="AE12" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="AF12" s="4" t="n">
-        <v>42.42</v>
-      </c>
-      <c r="AG12" s="4" t="n">
-        <v>6.47</v>
-      </c>
-      <c r="AH12" s="4" t="n">
-        <v>14.26</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_29.xlsx
+++ b/DATA_goal/Junction_Flooding_29.xlsx
@@ -443,7 +443,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="6" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
@@ -462,7 +462,7 @@
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
+    <col width="6" customWidth="1" min="21" max="21"/>
     <col width="6" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
     <col width="6" customWidth="1" min="24" max="24"/>
@@ -655,103 +655,103 @@
         <v>37499.00694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>5.24</v>
+        <v>0.52</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.61</v>
+        <v>0.16</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>2.48</v>
+        <v>0.25</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>3.05</v>
+        <v>0.31</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>2.52</v>
+        <v>0.25</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>5.49</v>
+        <v>0.55</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.55</v>
+        <v>0.16</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.09</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>4.02</v>
+        <v>0.4</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.07</v>
+        <v>0.11</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.09</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.87</v>
+        <v>0.09</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>2.75</v>
+        <v>0.27</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.11</v>
+        <v>0.11</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.51</v>
+        <v>0.05</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.06</v>
+        <v>0.01</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>20.09</v>
+        <v>2.01</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>4.8</v>
+        <v>0.48</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>2.37</v>
+        <v>0.24</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>3.89</v>
+        <v>0.39</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.03</v>
+        <v>0.1</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.25</v>
+        <v>0.02</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.98</v>
+        <v>0.2</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.15</v>
+        <v>0.12</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.67</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.09</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>3.13</v>
+        <v>0.31</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.87</v>
+        <v>0.29</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>3.13</v>
+        <v>0.31</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.45</v>
+        <v>0.04</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.43</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>37499.01388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>6.46</v>
+        <v>0.65</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>4.07</v>
+        <v>0.41</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>10.16</v>
+        <v>1.02</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>9.08</v>
+        <v>0.91</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>4.64</v>
+        <v>0.46</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>13.12</v>
+        <v>1.31</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>5.7</v>
+        <v>0.57</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>2.78</v>
+        <v>0.28</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>5.18</v>
+        <v>0.52</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>4.21</v>
+        <v>0.42</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>4.18</v>
+        <v>0.42</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>1.34</v>
+        <v>0.13</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>3.63</v>
+        <v>0.36</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>6.25</v>
+        <v>0.62</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>3.16</v>
+        <v>0.32</v>
       </c>
       <c r="R3" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="S3" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="T3" s="4" t="n">
+        <v>5.52</v>
+      </c>
+      <c r="U3" s="4" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="V3" s="4" t="n">
         <v>0.42</v>
       </c>
-      <c r="S3" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="T3" s="4" t="n">
-        <v>55.17</v>
-      </c>
-      <c r="U3" s="4" t="n">
-        <v>11.39</v>
-      </c>
-      <c r="V3" s="4" t="n">
-        <v>4.15</v>
-      </c>
       <c r="W3" s="4" t="n">
-        <v>7.89</v>
+        <v>0.79</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>3.73</v>
+        <v>0.37</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.54</v>
+        <v>0.05</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>6.66</v>
+        <v>0.67</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>3.28</v>
+        <v>0.33</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>2.61</v>
+        <v>0.26</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>3.18</v>
+        <v>0.32</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>5.45</v>
+        <v>0.55</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.13</v>
+        <v>0.11</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>11.01</v>
+        <v>1.1</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>1.88</v>
+        <v>0.19</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>4.42</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>37499.02083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>6.98</v>
+        <v>0.7</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>4.8</v>
+        <v>0.48</v>
       </c>
       <c r="D4" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="L4" s="4" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="N4" s="4" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="O4" s="4" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="P4" s="4" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="Q4" s="4" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="R4" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="S4" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="T4" s="4" t="n">
+        <v>6.68</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="Y4" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="Z4" s="4" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AA4" s="4" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="AB4" s="4" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AC4" s="4" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="AD4" s="4" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="AE4" s="4" t="n">
         <v>0.07000000000000001</v>
       </c>
-      <c r="E4" s="4" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="F4" s="4" t="n">
-        <v>10.98</v>
-      </c>
-      <c r="G4" s="4" t="n">
-        <v>5.27</v>
-      </c>
-      <c r="H4" s="4" t="n">
-        <v>18.16</v>
-      </c>
-      <c r="I4" s="4" t="n">
-        <v>7.07</v>
-      </c>
-      <c r="J4" s="4" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K4" s="4" t="n">
-        <v>5.63</v>
-      </c>
-      <c r="L4" s="4" t="n">
-        <v>5.23</v>
-      </c>
-      <c r="M4" s="4" t="n">
-        <v>5.27</v>
-      </c>
-      <c r="N4" s="4" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="O4" s="4" t="n">
-        <v>4.56</v>
-      </c>
-      <c r="P4" s="4" t="n">
-        <v>7.29</v>
-      </c>
-      <c r="Q4" s="4" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="R4" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="S4" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="T4" s="4" t="n">
-        <v>66.79000000000001</v>
-      </c>
-      <c r="U4" s="4" t="n">
-        <v>13.63</v>
-      </c>
-      <c r="V4" s="4" t="n">
-        <v>4.73</v>
-      </c>
-      <c r="W4" s="4" t="n">
-        <v>9.32</v>
-      </c>
-      <c r="X4" s="4" t="n">
-        <v>4.62</v>
-      </c>
-      <c r="Y4" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="Z4" s="4" t="n">
-        <v>9.08</v>
-      </c>
-      <c r="AA4" s="4" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="AB4" s="4" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="AC4" s="4" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="AD4" s="4" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="AE4" s="4" t="n">
-        <v>0.72</v>
-      </c>
       <c r="AF4" s="4" t="n">
-        <v>16.12</v>
+        <v>1.61</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>2.37</v>
+        <v>0.24</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>5.41</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>37499.02777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>10.15</v>
+        <v>1.01</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>7.32</v>
+        <v>0.73</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.2</v>
+        <v>0.02</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>20.24</v>
+        <v>2.02</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>17.1</v>
+        <v>1.71</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>7.84</v>
+        <v>0.78</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>28.08</v>
+        <v>2.81</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>11.25</v>
+        <v>1.13</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>5.2</v>
+        <v>0.52</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>8.199999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>8.24</v>
+        <v>0.82</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>8.49</v>
+        <v>0.85</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>2.42</v>
+        <v>0.24</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>7.28</v>
+        <v>0.73</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>11</v>
+        <v>1.1</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>6.08</v>
+        <v>0.61</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.32</v>
+        <v>0.03</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.2</v>
+        <v>0.02</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>106.92</v>
+        <v>10.69</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>20.97</v>
+        <v>2.1</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>7.11</v>
+        <v>0.71</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>14.25</v>
+        <v>1.43</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>7.3</v>
+        <v>0.73</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.99</v>
+        <v>0.1</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>13.9</v>
+        <v>1.39</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>6.11</v>
+        <v>0.61</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>5.21</v>
+        <v>0.52</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>6.18</v>
+        <v>0.62</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>9.140000000000001</v>
+        <v>0.91</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.52</v>
+        <v>0.05</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>25.15</v>
+        <v>2.51</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>3.8</v>
+        <v>0.38</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>8.51</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>37499.03472222222</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>9.550000000000001</v>
+        <v>0.96</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>6.95</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.2</v>
+        <v>0.02</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>19.33</v>
+        <v>1.93</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>16.27</v>
+        <v>1.63</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>7.42</v>
+        <v>0.74</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>28.38</v>
+        <v>2.84</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>10.74</v>
+        <v>1.07</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>4.96</v>
+        <v>0.5</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>7.73</v>
+        <v>0.77</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>7.87</v>
+        <v>0.79</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>8.109999999999999</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>2.3</v>
+        <v>0.23</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>6.96</v>
+        <v>0.7</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>10.44</v>
+        <v>1.04</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>5.8</v>
+        <v>0.58</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.28</v>
+        <v>0.03</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.19</v>
+        <v>0.02</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>101.25</v>
+        <v>10.13</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>19.99</v>
+        <v>2</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>6.73</v>
+        <v>0.67</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>13.58</v>
+        <v>1.36</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>6.97</v>
+        <v>0.7</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.09</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>13.83</v>
+        <v>1.38</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>5.81</v>
+        <v>0.58</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>4.97</v>
+        <v>0.5</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>5.89</v>
+        <v>0.59</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>8.630000000000001</v>
+        <v>0.86</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.41</v>
+        <v>0.04</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>25.58</v>
+        <v>2.56</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>3.63</v>
+        <v>0.36</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>8.109999999999999</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>37499.04166666666</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>3.23</v>
+        <v>0.32</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>2.25</v>
+        <v>0.22</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>5.83</v>
+        <v>0.58</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>5.07</v>
+        <v>0.51</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>2.47</v>
+        <v>0.25</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>12.75</v>
+        <v>1.27</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>3.22</v>
+        <v>0.32</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>1.62</v>
+        <v>0.16</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>2.59</v>
+        <v>0.26</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>2.44</v>
+        <v>0.24</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>2.39</v>
+        <v>0.24</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>0.74</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>2.1</v>
+        <v>0.21</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>3.5</v>
+        <v>0.35</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>1.77</v>
+        <v>0.18</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>0.2</v>
+        <v>0.02</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="T7" s="4" t="n">
-        <v>26.94</v>
+        <v>2.69</v>
       </c>
       <c r="U7" s="4" t="n">
-        <v>6.55</v>
+        <v>0.66</v>
       </c>
       <c r="V7" s="4" t="n">
-        <v>2.19</v>
+        <v>0.22</v>
       </c>
       <c r="W7" s="4" t="n">
-        <v>4.54</v>
+        <v>0.45</v>
       </c>
       <c r="X7" s="4" t="n">
-        <v>2.18</v>
+        <v>0.22</v>
       </c>
       <c r="Y7" s="4" t="n">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="Z7" s="4" t="n">
-        <v>5.94</v>
+        <v>0.59</v>
       </c>
       <c r="AA7" s="4" t="n">
-        <v>1.83</v>
+        <v>0.18</v>
       </c>
       <c r="AB7" s="4" t="n">
-        <v>1.5</v>
+        <v>0.15</v>
       </c>
       <c r="AC7" s="4" t="n">
-        <v>1.8</v>
+        <v>0.18</v>
       </c>
       <c r="AD7" s="4" t="n">
-        <v>2.86</v>
+        <v>0.29</v>
       </c>
       <c r="AE7" s="4" t="n">
-        <v>0.34</v>
+        <v>0.03</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>11.71</v>
+        <v>1.17</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>1.08</v>
+        <v>0.11</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>2.49</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>37499.04861111111</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>9.91</v>
+        <v>0.99</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>7.29</v>
+        <v>0.73</v>
       </c>
       <c r="D8" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E8" s="4" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="F8" s="4" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="G8" s="4" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="H8" s="4" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="I8" s="4" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="J8" s="4" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="K8" s="4" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L8" s="4" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="M8" s="4" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="N8" s="4" t="n">
         <v>0.24</v>
       </c>
-      <c r="E8" s="4" t="n">
-        <v>20.52</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>17.18</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>7.73</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>27.06</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>8.33</v>
-      </c>
-      <c r="M8" s="4" t="n">
-        <v>8.640000000000001</v>
-      </c>
-      <c r="N8" s="4" t="n">
+      <c r="O8" s="4" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="P8" s="4" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="Q8" s="4" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="R8" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="S8" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="T8" s="4" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="U8" s="4" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="V8" s="4" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="W8" s="4" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X8" s="4" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="Y8" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Z8" s="4" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA8" s="4" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="AB8" s="4" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="AC8" s="4" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="AD8" s="4" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AE8" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AF8" s="4" t="n">
         <v>2.41</v>
       </c>
-      <c r="O8" s="4" t="n">
-        <v>7.39</v>
-      </c>
-      <c r="P8" s="4" t="n">
-        <v>10.89</v>
-      </c>
-      <c r="Q8" s="4" t="n">
-        <v>6.14</v>
-      </c>
-      <c r="R8" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="S8" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="T8" s="4" t="n">
-        <v>106.99</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>20.89</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>7.04</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>14.15</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>7.36</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="Z8" s="4" t="n">
-        <v>13.32</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>6.12</v>
-      </c>
-      <c r="AB8" s="4" t="n">
-        <v>5.28</v>
-      </c>
-      <c r="AC8" s="4" t="n">
-        <v>6.24</v>
-      </c>
-      <c r="AD8" s="4" t="n">
-        <v>9</v>
-      </c>
-      <c r="AE8" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="AF8" s="4" t="n">
-        <v>24.09</v>
-      </c>
       <c r="AG8" s="4" t="n">
-        <v>3.87</v>
+        <v>0.39</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>8.58</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>37499.05555555555</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>9.390000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>6.92</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0.24</v>
+        <v>0.02</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>19.53</v>
+        <v>1.95</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>16.33</v>
+        <v>1.63</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>7.34</v>
+        <v>0.73</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>28.12</v>
+        <v>2.81</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>10.84</v>
+        <v>1.08</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>4.97</v>
+        <v>0.5</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>7.6</v>
+        <v>0.76</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>7.92</v>
+        <v>0.79</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>8.220000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>2.3</v>
+        <v>0.23</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>7.03</v>
+        <v>0.7</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>10.37</v>
+        <v>1.04</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>5.84</v>
+        <v>0.58</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.21</v>
+        <v>0.02</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>0.21</v>
+        <v>0.02</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>101.31</v>
+        <v>10.13</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>19.99</v>
+        <v>2</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>6.68</v>
+        <v>0.67</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>13.56</v>
+        <v>1.36</v>
       </c>
       <c r="X9" s="4" t="n">
-        <v>7.02</v>
+        <v>0.7</v>
       </c>
       <c r="Y9" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.09</v>
       </c>
       <c r="Z9" s="4" t="n">
-        <v>13.73</v>
+        <v>1.37</v>
       </c>
       <c r="AA9" s="4" t="n">
-        <v>5.82</v>
+        <v>0.58</v>
       </c>
       <c r="AB9" s="4" t="n">
-        <v>5.02</v>
+        <v>0.5</v>
       </c>
       <c r="AC9" s="4" t="n">
-        <v>5.93</v>
+        <v>0.59</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>8.539999999999999</v>
+        <v>0.85</v>
       </c>
       <c r="AE9" s="4" t="n">
-        <v>0.25</v>
+        <v>0.03</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>25.42</v>
+        <v>2.54</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>3.68</v>
+        <v>0.37</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>8.16</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>37499.0625</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>7.92</v>
+        <v>0.79</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>5.83</v>
+        <v>0.58</v>
       </c>
       <c r="D10" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E10" s="4" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="F10" s="4" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="G10" s="4" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="H10" s="4" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="I10" s="4" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="J10" s="4" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="K10" s="4" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="L10" s="4" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="M10" s="4" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="N10" s="4" t="n">
         <v>0.19</v>
       </c>
-      <c r="E10" s="4" t="n">
-        <v>16.43</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>13.75</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>6.19</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>24.54</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>9.119999999999999</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>4.19</v>
-      </c>
-      <c r="K10" s="4" t="n">
-        <v>6.41</v>
-      </c>
-      <c r="L10" s="4" t="n">
-        <v>6.67</v>
-      </c>
-      <c r="M10" s="4" t="n">
-        <v>6.91</v>
-      </c>
-      <c r="N10" s="4" t="n">
-        <v>1.93</v>
-      </c>
       <c r="O10" s="4" t="n">
-        <v>5.92</v>
+        <v>0.59</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>8.75</v>
+        <v>0.87</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>4.91</v>
+        <v>0.49</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0.19</v>
+        <v>0.02</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>0.17</v>
+        <v>0.02</v>
       </c>
       <c r="T10" s="4" t="n">
-        <v>84.15000000000001</v>
+        <v>8.42</v>
       </c>
       <c r="U10" s="4" t="n">
-        <v>16.86</v>
+        <v>1.69</v>
       </c>
       <c r="V10" s="4" t="n">
-        <v>5.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="W10" s="4" t="n">
-        <v>11.44</v>
+        <v>1.14</v>
       </c>
       <c r="X10" s="4" t="n">
-        <v>5.91</v>
+        <v>0.59</v>
       </c>
       <c r="Y10" s="4" t="n">
-        <v>0.79</v>
+        <v>0.08</v>
       </c>
       <c r="Z10" s="4" t="n">
-        <v>11.85</v>
+        <v>1.19</v>
       </c>
       <c r="AA10" s="4" t="n">
-        <v>4.9</v>
+        <v>0.49</v>
       </c>
       <c r="AB10" s="4" t="n">
-        <v>4.23</v>
+        <v>0.42</v>
       </c>
       <c r="AC10" s="4" t="n">
-        <v>4.99</v>
+        <v>0.5</v>
       </c>
       <c r="AD10" s="4" t="n">
-        <v>7.2</v>
+        <v>0.72</v>
       </c>
       <c r="AE10" s="4" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>22.21</v>
+        <v>2.22</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>3.1</v>
+        <v>0.31</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>6.87</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_29.xlsx
+++ b/DATA_goal/Junction_Flooding_29.xlsx
@@ -447,7 +447,7 @@
     <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
     <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
@@ -475,7 +475,7 @@
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44042.17430555556</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.43</v>
+        <v>4.35</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.5</v>
+        <v>5.03</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.08</v>
+        <v>0.78</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>1</v>
+        <v>10.02</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0.89</v>
+        <v>8.94</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.45</v>
+        <v>4.48</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0.92</v>
+        <v>9.15</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.59</v>
+        <v>5.85</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.25</v>
+        <v>2.5</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.6</v>
+        <v>6.03</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.74</v>
+        <v>7.4</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.43</v>
+        <v>4.26</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.73</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.34</v>
+        <v>3.37</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0.57</v>
+        <v>5.74</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.3</v>
+        <v>3.05</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.01</v>
+        <v>0.14</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.02</v>
+        <v>0.23</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>5.46</v>
+        <v>54.64</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>1.11</v>
+        <v>11.07</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.3</v>
+        <v>2.96</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>0.66</v>
+        <v>6.58</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.49</v>
+        <v>4.91</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.08</v>
+        <v>0.76</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.64</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.31</v>
+        <v>3.12</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.52</v>
+        <v>5.18</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.25</v>
+        <v>2.52</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.64</v>
+        <v>6.42</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.02</v>
+        <v>0.19</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0.72</v>
+        <v>7.16</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.2</v>
+        <v>2.01</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.44</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44042.18125</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.54</v>
+        <v>5.35</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.48</v>
+        <v>4.75</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.05</v>
+        <v>0.51</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>1.18</v>
+        <v>11.83</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>1.01</v>
+        <v>10.1</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.46</v>
+        <v>4.62</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>1.53</v>
+        <v>15.31</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.68</v>
+        <v>6.81</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.31</v>
+        <v>3.06</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.54</v>
+        <v>5.45</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.64</v>
+        <v>6.38</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.5</v>
+        <v>5.03</v>
       </c>
       <c r="N3" s="4" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="O3" s="4" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="P3" s="4" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="Q3" s="4" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="R3" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="S3" s="4" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="T3" s="4" t="n">
+        <v>60.95</v>
+      </c>
+      <c r="U3" s="4" t="n">
+        <v>12.52</v>
+      </c>
+      <c r="V3" s="4" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="W3" s="4" t="n">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="X3" s="4" t="n">
+        <v>4.98</v>
+      </c>
+      <c r="Y3" s="4" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="Z3" s="4" t="n">
+        <v>8.380000000000001</v>
+      </c>
+      <c r="AA3" s="4" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="AB3" s="4" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="AC3" s="4" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AD3" s="4" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="AE3" s="4" t="n">
         <v>0.11</v>
       </c>
-      <c r="O3" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="P3" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="Q3" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="R3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="T3" s="4" t="n">
-        <v>6.09</v>
-      </c>
-      <c r="U3" s="4" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="V3" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="W3" s="4" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="X3" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Y3" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="Z3" s="4" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="AA3" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="AB3" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AC3" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="AD3" s="4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="AE3" s="4" t="n">
-        <v>0.01</v>
-      </c>
       <c r="AF3" s="4" t="n">
-        <v>1.37</v>
+        <v>13.71</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.24</v>
+        <v>2.44</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.5</v>
+        <v>4.97</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44042.18819444445</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.46</v>
+        <v>14.63</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.14</v>
+        <v>11.45</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>3.19</v>
+        <v>31.93</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>2.66</v>
+        <v>26.6</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.18</v>
+        <v>11.75</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>4.16</v>
+        <v>41.65</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.8</v>
+        <v>17.95</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>8.06</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.26</v>
+        <v>12.59</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.39</v>
+        <v>13.89</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.36</v>
+        <v>13.56</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.35</v>
+        <v>3.53</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.14</v>
+        <v>11.35</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.67</v>
+        <v>16.65</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.96</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.01</v>
+        <v>0.11</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.42</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>16.98</v>
+        <v>169.82</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>3.24</v>
+        <v>32.44</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.04</v>
+        <v>10.39</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>2.18</v>
+        <v>21.76</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.19</v>
+        <v>11.93</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.16</v>
+        <v>1.56</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>2.13</v>
+        <v>21.28</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.380000000000001</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.9</v>
+        <v>9.02</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.96</v>
+        <v>9.56</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.41</v>
+        <v>14.14</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.01</v>
+        <v>0.09</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>3.76</v>
+        <v>37.6</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.62</v>
+        <v>6.23</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.33</v>
+        <v>13.27</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44042.19513888889</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.42</v>
+        <v>14.21</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.1</v>
+        <v>11.01</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.64</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>3.1</v>
+        <v>31.01</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>2.58</v>
+        <v>25.78</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.14</v>
+        <v>11.36</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>4.4</v>
+        <v>44.03</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.74</v>
+        <v>17.4</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.78</v>
+        <v>7.83</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.21</v>
+        <v>12.07</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.32</v>
+        <v>13.25</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.32</v>
+        <v>13.16</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.35</v>
+        <v>3.46</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.1</v>
+        <v>11.05</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.61</v>
+        <v>16.14</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.93</v>
+        <v>9.32</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.01</v>
+        <v>0.11</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.39</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>16.42</v>
+        <v>164.18</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>3.15</v>
+        <v>31.51</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.01</v>
+        <v>10.12</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>2.12</v>
+        <v>21.2</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.15</v>
+        <v>11.49</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.15</v>
+        <v>1.5</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>2.18</v>
+        <v>21.81</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.91</v>
+        <v>9.1</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.86</v>
+        <v>8.58</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.93</v>
+        <v>9.31</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.36</v>
+        <v>13.57</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.01</v>
+        <v>0.08</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>4</v>
+        <v>39.95</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.6</v>
+        <v>6.03</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.29</v>
+        <v>12.88</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_29.xlsx
+++ b/DATA_goal/Junction_Flooding_29.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
     <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
     <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44042.17430555556</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>4.35</v>
+        <v>4.347</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>5.03</v>
+        <v>5.032</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.78</v>
+        <v>0.777</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>10.02</v>
+        <v>10.022</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>8.94</v>
+        <v>8.942</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>4.48</v>
+        <v>4.483</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>9.15</v>
+        <v>9.151999999999999</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>5.85</v>
+        <v>5.852</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>2.5</v>
+        <v>2.498</v>
       </c>
       <c r="K2" s="4" t="n">
         <v>6.03</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>7.4</v>
+        <v>7.398</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>4.26</v>
+        <v>4.257</v>
       </c>
       <c r="N2" s="4" t="n">
         <v>0.73</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>3.37</v>
+        <v>3.371</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>5.74</v>
+        <v>5.736</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>3.05</v>
+        <v>3.045</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.14</v>
+        <v>0.138</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.23</v>
+        <v>0.227</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>54.64</v>
+        <v>54.637</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>11.07</v>
+        <v>11.069</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>2.96</v>
+        <v>2.959</v>
       </c>
       <c r="W2" s="4" t="n">
         <v>6.58</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>4.91</v>
+        <v>4.913</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.76</v>
+        <v>0.755</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>5.64</v>
+        <v>5.641</v>
       </c>
       <c r="AA2" s="4" t="n">
         <v>3.12</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>5.18</v>
+        <v>5.177</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>2.52</v>
+        <v>2.517</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>6.42</v>
+        <v>6.419</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.19</v>
+        <v>0.192</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>7.16</v>
+        <v>7.159</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>2.01</v>
+        <v>2.015</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>4.4</v>
+        <v>4.399</v>
       </c>
     </row>
     <row r="3">
@@ -759,67 +759,67 @@
         <v>44042.18125</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>5.35</v>
+        <v>5.354</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>4.75</v>
+        <v>4.751</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.51</v>
+        <v>0.507</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>11.83</v>
+        <v>11.825</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>10.1</v>
+        <v>10.096</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>4.62</v>
+        <v>4.615</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>15.31</v>
+        <v>15.313</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>6.81</v>
+        <v>6.814</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>3.06</v>
+        <v>3.058</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>5.45</v>
+        <v>5.449</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>6.38</v>
+        <v>6.382</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>5.03</v>
+        <v>5.033</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>1.14</v>
+        <v>1.137</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>4.07</v>
+        <v>4.072</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>6.44</v>
+        <v>6.438</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>3.65</v>
+        <v>3.645</v>
       </c>
       <c r="R3" s="4" t="n">
         <v>0.04</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.17</v>
+        <v>0.172</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>60.95</v>
+        <v>60.948</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>12.52</v>
+        <v>12.522</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>3.65</v>
+        <v>3.648</v>
       </c>
       <c r="W3" s="4" t="n">
         <v>8.119999999999999</v>
@@ -828,34 +828,34 @@
         <v>4.98</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.66</v>
+        <v>0.656</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>8.380000000000001</v>
+        <v>8.379</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>3.51</v>
+        <v>3.508</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>4.27</v>
+        <v>4.275</v>
       </c>
       <c r="AC3" s="4" t="n">
         <v>3.4</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>6.01</v>
+        <v>6.012</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.11</v>
+        <v>0.115</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>13.71</v>
+        <v>13.714</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>2.44</v>
+        <v>2.443</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>4.97</v>
+        <v>4.969</v>
       </c>
     </row>
     <row r="4">
@@ -863,40 +863,40 @@
         <v>44042.18819444445</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>14.63</v>
+        <v>14.625</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>11.45</v>
+        <v>11.448</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.71</v>
+        <v>0.712</v>
       </c>
       <c r="E4" s="4" t="n">
         <v>31.93</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>26.6</v>
+        <v>26.604</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>11.75</v>
+        <v>11.755</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>41.65</v>
+        <v>41.648</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>17.95</v>
+        <v>17.952</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>8.06</v>
+        <v>8.061999999999999</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>12.59</v>
+        <v>12.588</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>13.89</v>
+        <v>13.893</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>13.56</v>
+        <v>13.558</v>
       </c>
       <c r="N4" s="4" t="n">
         <v>3.53</v>
@@ -905,61 +905,61 @@
         <v>11.35</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>16.65</v>
+        <v>16.652</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>9.609999999999999</v>
+        <v>9.613</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.11</v>
+        <v>0.111</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.42</v>
+        <v>0.417</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>169.82</v>
+        <v>169.818</v>
       </c>
       <c r="U4" s="4" t="n">
         <v>32.44</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>10.39</v>
+        <v>10.388</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>21.76</v>
+        <v>21.759</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>11.93</v>
+        <v>11.933</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.56</v>
+        <v>1.559</v>
       </c>
       <c r="Z4" s="4" t="n">
         <v>21.28</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>9.380000000000001</v>
+        <v>9.375999999999999</v>
       </c>
       <c r="AB4" s="4" t="n">
         <v>9.02</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>9.56</v>
+        <v>9.561999999999999</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>14.14</v>
+        <v>14.136</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.092</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>37.6</v>
+        <v>37.598</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>6.23</v>
+        <v>6.226</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>13.27</v>
+        <v>13.275</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>12.88</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44042.20208333333</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>15.69</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>12.06</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>34.21</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>12.49</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>48.41</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>19.16</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>8.619999999999999</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>13.16</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>14.37</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>14.52</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>12.22</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>17.75</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>181.38</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>34.65</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>11.22</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>23.36</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>12.56</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>23.83</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>10.03</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>10.3</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>14.83</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>43.85</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>6.61</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>14.2</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_29.xlsx
+++ b/DATA_goal/Junction_Flooding_29.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,7 +456,7 @@
     <col width="8" customWidth="1" min="12" max="12"/>
     <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
     <col width="8" customWidth="1" min="16" max="16"/>
     <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
@@ -467,7 +467,7 @@
     <col width="8" customWidth="1" min="23" max="23"/>
     <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
@@ -967,103 +967,207 @@
         <v>44042.19513888889</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>14.21</v>
+        <v>14.211</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>11.01</v>
+        <v>11.014</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.64</v>
+        <v>0.644</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>31.01</v>
+        <v>31.006</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>25.78</v>
+        <v>25.784</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>11.36</v>
+        <v>11.362</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>44.03</v>
+        <v>44.033</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>17.4</v>
+        <v>17.403</v>
       </c>
       <c r="J5" s="4" t="n">
         <v>7.83</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>12.07</v>
+        <v>12.068</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>13.25</v>
+        <v>13.248</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>13.16</v>
+        <v>13.161</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.46</v>
+        <v>3.463</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>11.05</v>
+        <v>11.048</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>16.14</v>
+        <v>16.141</v>
       </c>
       <c r="Q5" s="4" t="n">
         <v>9.32</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.11</v>
+        <v>0.108</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.39</v>
+        <v>0.393</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>164.18</v>
+        <v>164.179</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>31.51</v>
+        <v>31.506</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>10.12</v>
+        <v>10.122</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>21.2</v>
+        <v>21.195</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>11.49</v>
+        <v>11.492</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.5</v>
+        <v>1.497</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>21.81</v>
+        <v>21.815</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>9.1</v>
+        <v>9.096</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>8.58</v>
+        <v>8.574999999999999</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>9.31</v>
+        <v>9.313000000000001</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>13.57</v>
+        <v>13.574</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0.08</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>39.95</v>
+        <v>39.951</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>6.03</v>
+        <v>6.025</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>12.88</v>
+        <v>12.878</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44042.20208333333</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>15.69</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>12.06</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>34.21</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>12.49</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>48.41</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>19.16</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>8.619999999999999</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>13.16</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>14.37</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>14.52</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>12.22</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>17.75</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>181.38</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>34.65</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>11.22</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>23.36</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>12.56</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>23.83</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>10.03</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>14.83</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>43.85</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>6.61</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>14.2</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_29.xlsx
+++ b/DATA_goal/Junction_Flooding_29.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,7 +456,7 @@
     <col width="8" customWidth="1" min="12" max="12"/>
     <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
     <col width="8" customWidth="1" min="16" max="16"/>
     <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
@@ -467,7 +467,7 @@
     <col width="8" customWidth="1" min="23" max="23"/>
     <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
-    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
@@ -967,207 +967,103 @@
         <v>44042.19513888889</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>14.211</v>
+        <v>14.21</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>11.014</v>
+        <v>11.01</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.644</v>
+        <v>0.64</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>31.006</v>
+        <v>31.01</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>25.784</v>
+        <v>25.78</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>11.362</v>
+        <v>11.36</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>44.033</v>
+        <v>44.03</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>17.403</v>
+        <v>17.4</v>
       </c>
       <c r="J5" s="4" t="n">
         <v>7.83</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>12.068</v>
+        <v>12.07</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>13.248</v>
+        <v>13.25</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>13.161</v>
+        <v>13.16</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.463</v>
+        <v>3.46</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>11.048</v>
+        <v>11.05</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>16.141</v>
+        <v>16.14</v>
       </c>
       <c r="Q5" s="4" t="n">
         <v>9.32</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.108</v>
+        <v>0.11</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.393</v>
+        <v>0.39</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>164.179</v>
+        <v>164.18</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>31.506</v>
+        <v>31.51</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>10.122</v>
+        <v>10.12</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>21.195</v>
+        <v>21.2</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>11.492</v>
+        <v>11.49</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.497</v>
+        <v>1.5</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>21.815</v>
+        <v>21.81</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>9.096</v>
+        <v>9.1</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>8.574999999999999</v>
+        <v>8.58</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>9.313000000000001</v>
+        <v>9.31</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>13.574</v>
+        <v>13.57</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0.08</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>39.951</v>
+        <v>39.95</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>6.025</v>
+        <v>6.03</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>12.878</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44042.20208333333</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>15.69</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>12.06</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>34.21</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>12.49</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>48.41</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>19.16</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>8.619999999999999</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>13.16</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>14.37</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>14.52</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>12.22</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>17.75</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>181.38</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>34.65</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>11.22</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>23.36</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>12.56</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>23.83</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>10.03</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>10.3</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>14.83</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>43.85</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>6.61</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>14.2</v>
+        <v>12.88</v>
       </c>
     </row>
   </sheetData>
